--- a/table/Datas/__tables__.xlsx
+++ b/table/Datas/__tables__.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>TbDialogue</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>dialogue.xlsx</t>
+  </si>
+  <si>
+    <t>group_id+id</t>
   </si>
 </sst>
 </file>
@@ -135,15 +147,21 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -153,16 +171,103 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -172,20 +277,47 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -205,7 +337,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1267,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1405,6 +1539,94 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
+    <row r="5" ht="13.75" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="b" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
